--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>001508</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>富国新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>56.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.51</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.71</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>36.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>001510</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>富国新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1435</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.44</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9556</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001345</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国新收益灵活配置混合A</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001347</t>
+          <t>001345</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国新收益灵活配置混合C</t>
+          <t>富国新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>57.44</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.18</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001508</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合A</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001510</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合C</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>005186</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>长安鑫兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>001347</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>富国新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005186</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合A</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005187</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合C</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>005187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>长安鑫兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>58.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>010595</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>广发成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>112.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005186</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合A</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.73</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005187</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合C</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.73</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>010596</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>广发成长精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>001880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>长城中国智造灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010596</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发成长精选混合C</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>78.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001880</t>
+          <t>005186</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合A</t>
+          <t>长安鑫兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合C</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>长城中国智造灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>78.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>005187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>长安鑫兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2436,4 +2437,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.8</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.65</v>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2706,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>13.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.699999999999999</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.8</v>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.65</v>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3143,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>15</v>
       </c>
       <c r="D6" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
         <v>13.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.64</v>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.699999999999999</v>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -3417,14 +3504,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>18.8</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -3433,14 +3642,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>8.65</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="7">
@@ -3449,13 +3658,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
         <v>13.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
+++ b/数据整理/stocks/A股/深证主板/002747-埃斯顿.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>7.64</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>18.8</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>8.65</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>15</v>
       </c>
       <c r="D8" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
         <v>13.36</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009246</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
+          <t>国泰中证机床ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0953</t>
+          <t>0.1469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001291</t>
+          <t>015986</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫量化多策略股票</t>
+          <t>中海新兴成长六个月持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>40.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012430</t>
+          <t>159663</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+          <t>华夏中证机床ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>97.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>83.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -813,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,36 +881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.71</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.53</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1144</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>001291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>摩根士丹利华鑫量化多策略股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.87</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.22</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4140</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011425</t>
+          <t>012430</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发优势成长股票A</t>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.88</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8339</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -978,226 +995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7445</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2009</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010596</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011426</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发优势成长股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1378</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1272,26 +1099,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.48</t>
+          <t>60.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>81.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8922</t>
+          <t>3.1144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1310,22 +1137,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.49</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8553</t>
+          <t>2.4140</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1348,26 +1175,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.07</t>
+          <t>16.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1673</t>
+          <t>0.8339</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1386,26 +1213,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.7445</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1424,26 +1251,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3115</t>
+          <t>0.2009</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1289,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>81.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2003</t>
+          <t>0.1626</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1500,26 +1327,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1917</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1538,26 +1365,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1576,22 +1403,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1604,6 +1431,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
